--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/20/seed5/result_data_RandomForest.xlsx
@@ -618,7 +618,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.724999999999998</v>
+        <v>5.569900000000001</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.016799999999998</v>
+        <v>5.031799999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.817899999999996</v>
+        <v>4.625499999999997</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.487700000000002</v>
+        <v>6.552199999999999</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.514200000000002</v>
+        <v>6.417700000000004</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.7318</v>
+        <v>5.813900000000001</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.465199999999997</v>
+        <v>6.583099999999997</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>8.959300000000002</v>
+        <v>9.191700000000003</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.128800000000001</v>
+        <v>5.1732</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.739900000000002</v>
+        <v>7.040600000000003</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.657599999999999</v>
+        <v>4.677600000000002</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.016299999999999</v>
+        <v>5.133699999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.827399999999997</v>
+        <v>4.865199999999999</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.327699999999996</v>
+        <v>5.562599999999995</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.449299999999997</v>
+        <v>5.354699999999997</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.205900000000002</v>
+        <v>5.166600000000003</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.134399999999998</v>
+        <v>8.473099999999997</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.668099999999996</v>
+        <v>5.507699999999997</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1893,7 +1893,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>4.905000000000001</v>
+        <v>4.833900000000002</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.279300000000001</v>
+        <v>5.416600000000002</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.973400000000002</v>
+        <v>5.753400000000003</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>4.426699999999999</v>
+        <v>4.576699999999999</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
